--- a/src/main/java/com/crm/qa/TestData/FreeCRMTestData.xlsx
+++ b/src/main/java/com/crm/qa/TestData/FreeCRMTestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2472" windowWidth="12420" windowHeight="4380"/>
+    <workbookView xWindow="0" yWindow="2472" windowWidth="12012" windowHeight="4308" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Contacts" sheetId="1" r:id="rId1"/>
@@ -12,7 +12,7 @@
     <sheet name="Tasks" sheetId="5" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
-  <oleSize ref="A1"/>
+  <oleSize ref="A1:L13"/>
 </workbook>
 </file>
 
@@ -425,8 +425,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -508,7 +508,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData/>

--- a/src/main/java/com/crm/qa/TestData/FreeCRMTestData.xlsx
+++ b/src/main/java/com/crm/qa/TestData/FreeCRMTestData.xlsx
@@ -12,7 +12,6 @@
     <sheet name="Tasks" sheetId="5" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
-  <oleSize ref="A1:L13"/>
 </workbook>
 </file>
 
@@ -430,6 +429,12 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.6640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
